--- a/youtube数据集概要.xlsx
+++ b/youtube数据集概要.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duansuyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duansuyang/PycharmProjects/IS5740/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD99EDF-7E52-2548-9AA5-111695A49598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D488B92-D803-EA4E-BF90-C7209D50FDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="21360" xr2:uid="{ECC3B540-1612-7343-8500-86F96B622FA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>rank</t>
   </si>
@@ -134,163 +134,196 @@
     <t>lowest_yearly_earnings</t>
   </si>
   <si>
+    <t>highest_yearly_earnings</t>
+  </si>
+  <si>
+    <t> Highest estimated yearly earnings from the channel</t>
+  </si>
+  <si>
+    <t>subscribers_for_last_30_days</t>
+  </si>
+  <si>
+    <t> Number of new subscribers gained in the last 30 days</t>
+  </si>
+  <si>
+    <t>created_year</t>
+  </si>
+  <si>
+    <t> Year when the YouTube channel was created</t>
+  </si>
+  <si>
+    <t>created_month</t>
+  </si>
+  <si>
+    <t> Month when the YouTube channel was created</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t> Exact date of the YouTube channel's creation</t>
+  </si>
+  <si>
+    <t>Gross tertiary education enrollment (%)</t>
+  </si>
+  <si>
+    <t> Percentage of the population enrolled in tertiary education in the country</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t> Total population of the country</t>
+  </si>
+  <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
+    <t> Unemployment rate in the country</t>
+  </si>
+  <si>
+    <t>Urban_population</t>
+  </si>
+  <si>
+    <t> Percentage of the population living in urban areas</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t> Latitude coordinate of the country's location</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t> Longitude coordinate of the country's location</t>
+  </si>
+  <si>
+    <t>根据订阅者数量确定 YouTube 频道的位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube 频道名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 频道订阅人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 频道的类别或利基</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube 频道标题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 频道上传的视频总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube 频道来源国</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 国家缩写</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube 频道的类型（如个人、品牌）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 根据视频总浏览量对频道进行排名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最近 30 天的视频总浏览量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该频道的最低估计月收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该频道的最高估计月收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该频道最低估计年收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该频道最高估计年收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最近 30 天内新订阅用户数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube 频道创建年份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建 YouTube 频道的月份</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube 频道创建的确切日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该国高等教育入学人口百分比</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该国总人口</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 该国失业率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 城市人口比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 国家位置的纬度坐标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 国家位置的经度坐标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 根据频道订阅者数量在所在国家内的排名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基于频道类型（个人或品牌）的排名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 频道所有视频的总浏览量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>video views</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>average_yearly_earnings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t> Lowest estimated yearly earnings from the channel</t>
-  </si>
-  <si>
-    <t>highest_yearly_earnings</t>
-  </si>
-  <si>
-    <t> Highest estimated yearly earnings from the channel</t>
-  </si>
-  <si>
-    <t>subscribers_for_last_30_days</t>
-  </si>
-  <si>
-    <t> Number of new subscribers gained in the last 30 days</t>
-  </si>
-  <si>
-    <t>created_year</t>
-  </si>
-  <si>
-    <t> Year when the YouTube channel was created</t>
-  </si>
-  <si>
-    <t>created_month</t>
-  </si>
-  <si>
-    <t> Month when the YouTube channel was created</t>
-  </si>
-  <si>
-    <t>created_date</t>
-  </si>
-  <si>
-    <t> Exact date of the YouTube channel's creation</t>
-  </si>
-  <si>
-    <t>Gross tertiary education enrollment (%)</t>
-  </si>
-  <si>
-    <t> Percentage of the population enrolled in tertiary education in the country</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t> Total population of the country</t>
-  </si>
-  <si>
-    <t>Unemployment rate</t>
-  </si>
-  <si>
-    <t> Unemployment rate in the country</t>
-  </si>
-  <si>
-    <t>Urban_population</t>
-  </si>
-  <si>
-    <t> Percentage of the population living in urban areas</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t> Latitude coordinate of the country's location</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t> Longitude coordinate of the country's location</t>
-  </si>
-  <si>
-    <t>根据订阅者数量确定 YouTube 频道的位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YouTube 频道名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 频道订阅人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 频道的类别或利基</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YouTube 频道标题</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 频道上传的视频总数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YouTube 频道来源国</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 国家缩写</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YouTube 频道的类型（如个人、品牌）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 根据视频总浏览量对频道进行排名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最近 30 天的视频总浏览量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 该频道的最低估计月收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 该频道的最高估计月收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 该频道最低估计年收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 该频道最高估计年收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最近 30 天内新订阅用户数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YouTube 频道创建年份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 创建 YouTube 频道的月份</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YouTube 频道创建的确切日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 该国高等教育入学人口百分比</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 该国总人口</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 该国失业率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 城市人口比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 国家位置的纬度坐标</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 国家位置的经度坐标</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 根据频道订阅者数量在所在国家内的排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 基于频道类型（个人或品牌）的排名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 频道所有视频的总浏览量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>video views</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t> Average estimated yearly earnings from the channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>views_earn_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The rate between views and earnings indicates the income or conversion rate per view</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>existed_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The duration in years between the creation of the channel and the present time.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_frequency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the rate at which content is uploaded or published by a channel or creator. (yearly)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A99E35-8664-DE4F-BCFB-A14A84D9C54E}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -721,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
@@ -732,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
@@ -743,18 +776,18 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -765,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
@@ -776,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
@@ -787,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
@@ -798,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
@@ -809,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
@@ -820,7 +853,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -831,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
@@ -842,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
@@ -853,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
@@ -864,7 +897,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
@@ -875,7 +908,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18">
@@ -886,7 +919,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -894,131 +927,163 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18">
+      <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
